--- a/QE300.xlsx
+++ b/QE300.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\seminar\tidyverse_201912\tidyverse_201912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606486B5-69AF-4431-B53B-CBA6E092A6C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B00A65A-E753-43CC-8D91-4C0E9E7C3C62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,15 +2030,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2056,6 +2047,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA23" sqref="BA23"/>
+    <sheetView tabSelected="1" topLeftCell="AF6" workbookViewId="0">
+      <selection activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2419,78 +2419,78 @@
     </row>
     <row r="2" spans="1:68" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="25" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="26" t="s">
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="27" t="s">
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
       <c r="BN2" s="10"/>
@@ -2501,42 +2501,42 @@
       <c r="A3" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
@@ -2683,61 +2683,61 @@
       <c r="Y4" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AC4" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AG4" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AH4" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AK4" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AL4" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AM4" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AN4" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="AO4" s="20" t="s">
+      <c r="AO4" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AP4" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="AQ4" s="19" t="s">
+      <c r="AQ4" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AR4" s="25" t="s">
         <v>386</v>
       </c>
       <c r="AS4" s="12" t="s">
@@ -2877,25 +2877,25 @@
       <c r="Y5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
@@ -63433,16 +63433,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="Z2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
-    <mergeCell ref="AY2:BD2"/>
-    <mergeCell ref="BE2:BK2"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z4:Z5"/>
@@ -63455,14 +63453,16 @@
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="Z2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="AY2:BD2"/>
+    <mergeCell ref="BE2:BK2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
